--- a/Istiqlal/Sekolah/SMP/Tahfidz 2022/Daftar Nilai Seritifikasi_3.xlsx
+++ b/Istiqlal/Sekolah/SMP/Tahfidz 2022/Daftar Nilai Seritifikasi_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\design\Istiqlal\Sekolah\SMP\Tahfidz 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B25741C-A40E-4C4C-9FD3-8FAD35EEF82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509BF14A-CB73-4B1C-82DA-DD39E34388A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{7F4C392D-0DE3-4596-BBF5-F8FBEC758D9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{7F4C392D-0DE3-4596-BBF5-F8FBEC758D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Januari" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="89">
   <si>
     <t>NO</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>Nazla Chairani</t>
+  </si>
+  <si>
+    <t>Ahnaf Kaisah Firzanah</t>
+  </si>
+  <si>
+    <t>Nadia Ana Shakira</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -531,11 +537,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,6 +684,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2324,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E5C587-E044-43C8-BCCD-29EBA25F5637}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,6 +2667,40 @@
         <v>25</v>
       </c>
     </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="57">
+        <v>29</v>
+      </c>
+      <c r="D17" s="58">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="57">
+        <v>30</v>
+      </c>
+      <c r="D18" s="58">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2643,10 +2708,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0890A70-47BF-4E14-87F0-AA4E71C30C43}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,7 +3125,42 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="58">
+        <v>92</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="58">
+        <v>90</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Istiqlal/Sekolah/SMP/Tahfidz 2022/Daftar Nilai Seritifikasi_3.xlsx
+++ b/Istiqlal/Sekolah/SMP/Tahfidz 2022/Daftar Nilai Seritifikasi_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\design\Istiqlal\Sekolah\SMP\Tahfidz 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509BF14A-CB73-4B1C-82DA-DD39E34388A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12729B7-8F9F-4C15-A59D-6050F618A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{7F4C392D-0DE3-4596-BBF5-F8FBEC758D9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{7F4C392D-0DE3-4596-BBF5-F8FBEC758D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Januari" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="95">
   <si>
     <t>NO</t>
   </si>
@@ -304,6 +304,24 @@
   </si>
   <si>
     <t>Nadia Ana Shakira</t>
+  </si>
+  <si>
+    <t>25-50</t>
+  </si>
+  <si>
+    <t>Ahmad Ihsan Al-Anshori</t>
+  </si>
+  <si>
+    <t>Imam Arief Nurohman</t>
+  </si>
+  <si>
+    <t>Shofwah Hamidah D</t>
+  </si>
+  <si>
+    <t>Adzwa Azhar Nabila</t>
+  </si>
+  <si>
+    <t>Meisya Putri Andartika</t>
   </si>
 </sst>
 </file>
@@ -550,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,25 +699,31 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DABF14F-E705-42AB-AE73-AF89DD16A518}">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1030,17 +1054,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1568,20 +1592,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -2355,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E5C587-E044-43C8-BCCD-29EBA25F5637}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,23 +2640,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="32">
-        <v>30</v>
-      </c>
-      <c r="D14" s="27">
-        <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>86</v>
@@ -2668,16 +2675,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="57">
+      <c r="B17" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="56">
         <v>29</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="57">
         <v>86</v>
       </c>
       <c r="E17" t="s">
@@ -2685,19 +2692,87 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="56">
         <v>30</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="57">
         <v>83</v>
       </c>
       <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="34">
+        <v>29</v>
+      </c>
+      <c r="D19" s="62">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="34">
+        <v>30</v>
+      </c>
+      <c r="D20" s="62">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="34">
+        <v>30</v>
+      </c>
+      <c r="D21" s="62">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="32">
+        <v>30</v>
+      </c>
+      <c r="D22" s="27">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2708,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0890A70-47BF-4E14-87F0-AA4E71C30C43}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,13 +3204,13 @@
       <c r="A23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="57">
         <v>92</v>
       </c>
       <c r="E23" s="27" t="s">
@@ -3146,18 +3221,55 @@
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="57">
         <v>90</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="57">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="57">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -3183,17 +3295,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">

--- a/Istiqlal/Sekolah/SMP/Tahfidz 2022/Daftar Nilai Seritifikasi_3.xlsx
+++ b/Istiqlal/Sekolah/SMP/Tahfidz 2022/Daftar Nilai Seritifikasi_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ichsan\design\Istiqlal\Sekolah\SMP\Tahfidz 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12729B7-8F9F-4C15-A59D-6050F618A8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF52672-FA49-4C3F-A133-B93F27D42F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{7F4C392D-0DE3-4596-BBF5-F8FBEC758D9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="2" xr2:uid="{7F4C392D-0DE3-4596-BBF5-F8FBEC758D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Januari" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="96">
   <si>
     <t>NO</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Meisya Putri Andartika</t>
+  </si>
+  <si>
+    <t>Abdurrahman Naufal Al Ghifari</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,7 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,53 +624,40 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +675,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -699,26 +688,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,17 +1052,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1120,7 +1118,7 @@
       <c r="H6" s="1">
         <v>83</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1149,7 +1147,7 @@
       <c r="H7" s="1">
         <v>90</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1163,12 +1161,12 @@
       <c r="C8" s="6">
         <v>30</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1195,7 +1193,7 @@
       <c r="H9" s="1">
         <v>84</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1209,22 +1207,22 @@
       <c r="C10" s="1">
         <v>30</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>84</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>85</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>85</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>85</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>86</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1238,22 +1236,22 @@
       <c r="C11" s="1">
         <v>29</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>84</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>85</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>85</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>85</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>86</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1282,7 +1280,7 @@
       <c r="H12" s="1">
         <v>88</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1311,7 +1309,7 @@
       <c r="H13" s="1">
         <v>85</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1340,7 +1338,7 @@
       <c r="H14" s="1">
         <v>85</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1354,22 +1352,22 @@
       <c r="C15" s="1">
         <v>30</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>84</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>82</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>82</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>80</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <v>85</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1383,12 +1381,12 @@
       <c r="C16" s="6">
         <v>29</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1415,7 +1413,7 @@
       <c r="H17" s="1">
         <v>86</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1444,7 +1442,7 @@
       <c r="H18" s="1">
         <v>88</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1473,7 +1471,7 @@
       <c r="H19" s="1">
         <v>84</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1487,11 +1485,11 @@
       <c r="C20" s="6">
         <v>29</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1519,7 +1517,7 @@
       <c r="H21" s="1">
         <v>86</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1530,13 +1528,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="32.25" x14ac:dyDescent="0.7">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="13" t="s">
         <v>25</v>
       </c>
@@ -1545,7 +1543,7 @@
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="13" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1552,7 @@
       <c r="B27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="13" t="s">
         <v>27</v>
       </c>
@@ -1592,20 +1590,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1614,29 +1612,29 @@
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="38"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="27" t="s">
         <v>74</v>
       </c>
       <c r="L5" s="10" t="s">
@@ -1647,35 +1645,35 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="26">
         <v>30</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="19">
         <v>85</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="19">
         <v>90</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="19" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1683,35 +1681,35 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="26">
         <v>30</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="18">
         <v>80</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="18">
         <v>90</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1719,35 +1717,35 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="26">
         <v>30</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="18">
         <v>91</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="2">
         <v>3</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="32" t="s">
+      <c r="I8" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="18">
         <v>87</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1755,35 +1753,35 @@
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="26">
         <v>30</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="18">
         <v>93</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="2">
         <v>4</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="32" t="s">
+      <c r="I9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="18">
         <v>88</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1791,35 +1789,35 @@
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="26">
         <v>30</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="18">
         <v>87</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="30"/>
       <c r="G10" s="2">
         <v>5</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="32" t="s">
+      <c r="I10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="18">
         <v>88</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1827,35 +1825,35 @@
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="C11" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="26">
         <v>1</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="18">
         <v>84</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="2">
         <v>6</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="32" t="s">
+      <c r="I11" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="18">
         <v>89</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1863,35 +1861,35 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="32">
+      <c r="C12" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="26">
         <v>30</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="18">
         <v>89</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="2">
         <v>7</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="18">
         <v>93</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1899,35 +1897,35 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="32">
+      <c r="C13" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="26">
         <v>29</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="18">
         <v>89</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="2">
         <v>8</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="18">
         <v>90</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1935,35 +1933,35 @@
       <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="32">
+      <c r="C14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="26">
         <v>28</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="18">
         <v>91</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="2">
         <v>9</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="18">
         <v>92</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1971,35 +1969,35 @@
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="32">
+      <c r="C15" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="26">
         <v>30</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="18">
         <v>95</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="18">
         <v>90</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2007,35 +2005,35 @@
       <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="32">
+      <c r="C16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="26">
         <v>29</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="18">
         <v>91</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="2">
         <v>11</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="18">
         <v>94</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2043,35 +2041,35 @@
       <c r="A17" s="2">
         <v>12</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="26">
         <v>30</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="18">
         <v>86</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="2">
         <v>12</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="18">
         <v>92</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="18" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2079,35 +2077,35 @@
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="26">
         <v>30</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="19">
         <v>85</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="2">
         <v>13</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="19">
         <v>90</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="19" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2115,35 +2113,35 @@
       <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="26">
         <v>30</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="19">
         <v>81</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="2">
         <v>14</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="40" t="s">
+      <c r="I19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="19">
         <v>95</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="19" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2151,35 +2149,35 @@
       <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="32">
+      <c r="C20" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="26">
         <v>1</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="19">
         <v>94</v>
       </c>
-      <c r="F20" s="35"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="2">
         <v>15</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="40" t="s">
+      <c r="I20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="19">
         <v>90</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2187,27 +2185,27 @@
       <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="2">
         <v>16</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="40" t="s">
+      <c r="I21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K21" s="19">
         <v>90</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2215,19 +2213,19 @@
       <c r="G22" s="2">
         <v>17</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="40" t="s">
+      <c r="I22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <v>94</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2235,19 +2233,19 @@
       <c r="G23" s="2">
         <v>18</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="40" t="s">
+      <c r="I23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <v>92</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2255,19 +2253,19 @@
       <c r="G24" s="2">
         <v>19</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="40" t="s">
+      <c r="I24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <v>94</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2275,19 +2273,19 @@
       <c r="G25" s="2">
         <v>20</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="32" t="s">
+      <c r="I25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="18">
         <v>89</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2295,19 +2293,19 @@
       <c r="G26" s="2">
         <v>21</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="32" t="s">
+      <c r="I26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="18">
         <v>90</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="20" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2319,21 +2317,21 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="21"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
+      <c r="B29" s="43"/>
     </row>
     <row r="35" spans="1:5" ht="36" x14ac:dyDescent="0.8">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="30" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2342,8 +2340,8 @@
         <v>68</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="30" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2352,8 +2350,8 @@
         <v>67</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="30" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2363,7 +2361,7 @@
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2379,10 +2377,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E5C587-E044-43C8-BCCD-29EBA25F5637}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,35 +2392,35 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="27" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G1" s="12"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.8">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="26">
         <v>30</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="19">
         <v>85</v>
       </c>
       <c r="E2" t="s">
@@ -2432,22 +2430,22 @@
         <v>68</v>
       </c>
       <c r="G2" s="12"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="30" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.8">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="26">
         <v>30</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="18">
         <v>80</v>
       </c>
       <c r="E3" t="s">
@@ -2457,22 +2455,22 @@
         <v>67</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.8">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="26">
         <v>30</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="18">
         <v>91</v>
       </c>
       <c r="E4" t="s">
@@ -2483,21 +2481,21 @@
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="26">
         <v>30</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="18">
         <v>93</v>
       </c>
       <c r="E5" t="s">
@@ -2505,16 +2503,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="26">
         <v>30</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="18">
         <v>87</v>
       </c>
       <c r="E6" t="s">
@@ -2522,16 +2520,16 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="B7" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="26">
         <v>1</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="18">
         <v>84</v>
       </c>
       <c r="E7" t="s">
@@ -2539,16 +2537,16 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="B8" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="26">
         <v>30</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="18">
         <v>89</v>
       </c>
       <c r="E8" t="s">
@@ -2556,16 +2554,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="32">
+      <c r="B9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="26">
         <v>29</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="18">
         <v>89</v>
       </c>
       <c r="E9" t="s">
@@ -2573,16 +2571,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="32">
+      <c r="B10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="26">
         <v>28</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="18">
         <v>91</v>
       </c>
       <c r="E10" t="s">
@@ -2590,16 +2588,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="B11" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="26">
         <v>30</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="18">
         <v>95</v>
       </c>
       <c r="E11" t="s">
@@ -2607,16 +2605,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="32">
+      <c r="B12" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="26">
         <v>29</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="18">
         <v>91</v>
       </c>
       <c r="E12" t="s">
@@ -2624,16 +2622,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="26">
         <v>30</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="18">
         <v>86</v>
       </c>
       <c r="E13" t="s">
@@ -2641,16 +2639,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="26">
         <v>30</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="19">
         <v>81</v>
       </c>
       <c r="E15" t="s">
@@ -2658,16 +2656,16 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="26">
         <v>1</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="19">
         <v>94</v>
       </c>
       <c r="E16" t="s">
@@ -2675,16 +2673,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="56">
+      <c r="B17" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="50">
         <v>29</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="51">
         <v>86</v>
       </c>
       <c r="E17" t="s">
@@ -2692,16 +2690,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="50">
         <v>30</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="51">
         <v>83</v>
       </c>
       <c r="E18" t="s">
@@ -2712,13 +2710,13 @@
       <c r="A19" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="34">
+      <c r="B19" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="28">
         <v>29</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="55">
         <v>90</v>
       </c>
       <c r="E19" t="s">
@@ -2729,13 +2727,13 @@
       <c r="A20" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="34">
+      <c r="B20" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="28">
         <v>30</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="55">
         <v>90</v>
       </c>
       <c r="E20" t="s">
@@ -2746,13 +2744,13 @@
       <c r="A21" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="34">
+      <c r="B21" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="28">
         <v>30</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="55">
         <v>89</v>
       </c>
       <c r="E21" t="s">
@@ -2760,19 +2758,36 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="26">
         <v>30</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="19">
         <v>85</v>
       </c>
       <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="58">
+        <v>30</v>
+      </c>
+      <c r="D23" s="59">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2798,13 +2813,13 @@
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2814,75 +2829,75 @@
         <v>69</v>
       </c>
       <c r="H1" s="12"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.8">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="19">
         <v>90</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>68</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.8">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="18">
         <v>90</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.8">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="18">
         <v>87</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -2890,313 +2905,313 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="18">
         <v>88</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="18">
         <v>88</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="18">
         <v>89</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="18">
         <v>93</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="18">
         <v>90</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="18">
         <v>92</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="18">
         <v>90</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="18">
         <v>94</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="18">
         <v>92</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="19">
         <v>90</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="19">
         <v>95</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="19">
         <v>90</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="19">
         <v>90</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="40" t="s">
+      <c r="B18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>94</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="40" t="s">
+      <c r="B19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>92</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="40" t="s">
+      <c r="B20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>94</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>89</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>90</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3204,16 +3219,16 @@
       <c r="A23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="51">
         <v>92</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3221,16 +3236,16 @@
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="51">
         <v>90</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3238,13 +3253,13 @@
       <c r="A25" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="52" t="s">
         <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="57">
+      <c r="D25" s="51">
         <v>91</v>
       </c>
       <c r="E25" t="s">
@@ -3255,13 +3270,13 @@
       <c r="A26" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="52" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="51">
         <v>90</v>
       </c>
       <c r="E26" t="s">
@@ -3269,7 +3284,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
+      <c r="B27" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -3295,17 +3310,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -3361,7 +3376,7 @@
       <c r="H6" s="1">
         <v>84</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3390,7 +3405,7 @@
       <c r="H7" s="1">
         <v>83</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3398,28 +3413,28 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>29</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>84</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>81</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>81</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>81</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>90</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3427,10 +3442,10 @@
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>29</v>
       </c>
       <c r="D9" s="1">
@@ -3448,7 +3463,7 @@
       <c r="H9" s="1">
         <v>84</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3456,28 +3471,28 @@
       <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>1</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>83</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>81</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>81</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>81</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>90</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3488,25 +3503,25 @@
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>82</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>82</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>81</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>81</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>83</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3514,66 +3529,66 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3586,7 +3601,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3599,7 +3614,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3612,19 +3627,19 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -3638,7 +3653,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
@@ -3647,13 +3662,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="32.25" x14ac:dyDescent="0.7">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="13" t="s">
         <v>25</v>
       </c>
@@ -3662,7 +3677,7 @@
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="13" t="s">
         <v>26</v>
       </c>
@@ -3671,7 +3686,7 @@
       <c r="B27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="13" t="s">
         <v>27</v>
       </c>
